--- a/TestScenarioUjianCucumber.xlsx
+++ b/TestScenarioUjianCucumber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bootcamp Juara Coding\exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bootcamp Juara Coding\exam\Ujian Ke 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F1D17-2442-4790-87EF-56282117D465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC9C2BF-FCF6-48B3-8C2D-6EA9F9AD5D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7751A9-7589-4072-9645-2F42084761C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5E7751A9-7589-4072-9645-2F42084761C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hotels" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -167,9 +167,6 @@
     <t xml:space="preserve">Memilih menu flights </t>
   </si>
   <si>
-    <t>Form Flights</t>
-  </si>
-  <si>
     <t>Jika form flights tidak diisi maka akan muncul notifikasi Please fill out origin</t>
   </si>
   <si>
@@ -185,18 +182,12 @@
     <t>Menampilkan pilihan flights sesuai dengan data form flights, sesuai</t>
   </si>
   <si>
-    <t>Mengisi form flights</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menampikan form flights </t>
   </si>
   <si>
     <t>Menampikan form flights, sesuai</t>
   </si>
   <si>
-    <t>Mengisi form flights, sesuai</t>
-  </si>
-  <si>
     <t>Mencari pilihan flights</t>
   </si>
   <si>
@@ -297,6 +288,66 @@
   </si>
   <si>
     <t>Jika form hotels tidak diisi maka akan muncul alert Please select an item in the list, sesuai</t>
+  </si>
+  <si>
+    <t>Book Now</t>
+  </si>
+  <si>
+    <t>Memilih pilihan flights</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman form data diri</t>
+  </si>
+  <si>
+    <t>Form Tujuan Flights</t>
+  </si>
+  <si>
+    <t>Mengisi form tujuan flights</t>
+  </si>
+  <si>
+    <t>Mengisi form tujuan flights, sesuai</t>
+  </si>
+  <si>
+    <t>Form Flights Booking</t>
+  </si>
+  <si>
+    <t>Mengisi data form flights booking</t>
+  </si>
+  <si>
+    <t>Mengisi data form flights booking, sesuai</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman form data diri, sesuai</t>
+  </si>
+  <si>
+    <t>TCC.F.014</t>
+  </si>
+  <si>
+    <t>TCC.F.015</t>
+  </si>
+  <si>
+    <t>TCC.F.016</t>
+  </si>
+  <si>
+    <t>Confirm Booking</t>
+  </si>
+  <si>
+    <t>Mensubmit data form flights booking</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman booking invoice</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman booking invoice, sesuai</t>
+  </si>
+  <si>
+    <t>Jika  payment method dan syarat dan persetujuan data diri tidak dicentang maka tombol confirm booking tidak berfungsi</t>
+  </si>
+  <si>
+    <t>TCC.F.017</t>
+  </si>
+  <si>
+    <t>Jika  payment method dan syarat dan persetujuan data diri tidak dicentang maka tombol confirm booking tidak berfungsi, sesuai</t>
   </si>
 </sst>
 </file>
@@ -359,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -419,11 +470,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -450,14 +510,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5C8C0F-F1C1-4FCD-94CB-705383305AFB}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,26 +857,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -844,12 +909,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -868,10 +933,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
@@ -888,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
@@ -912,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -936,19 +1001,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -960,10 +1025,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
@@ -980,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
@@ -1004,19 +1069,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -1028,19 +1093,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>24</v>
@@ -1052,19 +1117,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -1076,15 +1141,15 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
@@ -1096,15 +1161,15 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -1123,44 +1188,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71D469-E8B7-498D-8DF9-15C38E6154CE}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="101.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1198,7 +1263,7 @@
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1220,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1287,17 +1352,17 @@
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>24</v>
@@ -1311,8 +1376,8 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1362,10 +1427,10 @@
         <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -1380,16 +1445,16 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>24</v>
@@ -1403,17 +1468,17 @@
       <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -1427,13 +1492,13 @@
       <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>24</v>
@@ -1447,44 +1512,146 @@
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="19"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TestScenarioUjianCucumber.xlsx
+++ b/TestScenarioUjianCucumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bootcamp Juara Coding\exam\Ujian Ke 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC9C2BF-FCF6-48B3-8C2D-6EA9F9AD5D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E842F-0AC3-4845-B17C-3ACEFB9F39FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5E7751A9-7589-4072-9645-2F42084761C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7751A9-7589-4072-9645-2F42084761C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hotels" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -348,6 +348,21 @@
   </si>
   <si>
     <t>Jika  payment method dan syarat dan persetujuan data diri tidak dicentang maka tombol confirm booking tidak berfungsi, sesuai</t>
+  </si>
+  <si>
+    <t>TCC.H.013</t>
+  </si>
+  <si>
+    <t>Memilih hotels</t>
+  </si>
+  <si>
+    <t>Hotels Menu</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman details hotels</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman details hotels, sesuai</t>
   </si>
 </sst>
 </file>
@@ -515,14 +530,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5C8C0F-F1C1-4FCD-94CB-705383305AFB}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,26 +872,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1072,7 +1087,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>73</v>
@@ -1175,12 +1190,37 @@
         <v>24</v>
       </c>
       <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1188,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71D469-E8B7-498D-8DF9-15C38E6154CE}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1206,26 +1246,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1474,7 +1514,7 @@
       <c r="D14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1492,8 +1532,8 @@
       <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="13" t="s">
         <v>55</v>
       </c>
@@ -1512,8 +1552,8 @@
       <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
@@ -1638,14 +1678,14 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="18"/>
